--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T08:24:08+00:00</t>
+    <t>2022-08-18T01:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T01:06:26+00:00</t>
+    <t>2022-08-18T06:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -389,10 +389,10 @@
     <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
+  </si>
+  <si>
+    <t>放射線レポートの場合、主となる所見を表すエレメントは他のリソースエレメントには存在しない。よってこのドメインリソースを用いてレポートの少なくとも「所見」を人間が可読な状態で保持することが求められる。</t>
   </si>
   <si>
     <t>DomainResource.text</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T06:30:33+00:00</t>
+    <t>2022-08-18T06:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T08:52:30+00:00</t>
+    <t>2022-08-31T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:13:48+00:00</t>
+    <t>2022-09-01T00:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,7 +650,7 @@
     <t>この診断レポートを表現するコードや名称</t>
   </si>
   <si>
-    <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定</t>
+    <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定。コードを指定できない場合はCodeableConceptを使用せずテキスト等を直接コーディングすることも許容されるが、要素間の調整と事前・事後の内容の整合性確保のために独自の構造を提供する必要があるので留意すること。</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:29:56+00:00</t>
+    <t>2022-09-01T02:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
